--- a/medicine/Médecine vétérinaire/Ÿnsect/Ÿnsect.xlsx
+++ b/medicine/Médecine vétérinaire/Ÿnsect/Ÿnsect.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%B8nsect</t>
+          <t>Ÿnsect</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ÿnsect est une entreprise qui produit des protéines et engrais naturels d’insectes, fondée en 2011 à Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%B8nsect</t>
+          <t>Ÿnsect</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,19 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2011, Ÿnsect est créée par 4 scientifiques et militants écologistes[2] : Antoine Hubert (AgroParisTech), Jean-Gabriel Levon (HEC Paris, Polytechnique), Fabrice Berro (Ensimag) et Alexis Angot (Essec)[3].
-En février 2014, Ÿnsect réalise sa première levée de fonds et récolte 1,8 M€ grâce à des actionnaires tels que Emertec Gestion et Demeter Partners[4].  La première ferme du groupe est implantée à Dôle en 2015[5].
-En 2018, Ÿnsect annonce l’installation d'un nouveau site de production à Poulainville, dans la métropole d'Amiens, France. La giga ferme verticale fera 45 000 m2[6].
-En 2019 la société intègre l'indice Next40[7],[8].
-En mars 2020, Ÿnsect elle est la première entreprise au monde à obtenir une homologation de mise en marché] d’un engrais naturel à base d’insecte délivré par l'ANSES[9]. En octobre 2020, l'entreprise annonce avoir complété son financement de série C pour atteindre un montant total de son financement à 425 millions USD[10].
-En mars 2021, Ÿnsect se voit délivrer la labellisation Bcorp[11]. En avril 2021, Ÿnsect rachète Protifarm, entreprise néerlandaise, et étend son portefeuille de brevets à plus de 340 issus de 41 familles. Ce rachat s'inscrit dans une volonté de l'entreprise de se lancer sur le marché de l'alimentation humaine à base d'insectes[12].
-En mars 2021, Ÿnsect annonce le lancement d’Ÿnfabre, premier programme industriel de sélection génomique appliquée aux élevages d’insectes à grande échelle[13]. En 2021, Ÿnsect s’est engagé à planter, dans le cadre de son projet Terrha 2040, 1,8 million d’arbres dans les Hauts-de-France, avec pour but de séquestrer plus de 190 000 tonnes de CO2 CO2 d’ici à 2040[14],[15]. En mai 2021, Ÿnsect inaugure la pose de la première pierre de son chantier d'Amiens[16]. En novembre 2021, Ÿnsect lance un partenariat avec la startup Pure Simple True, pour fabriquer des friandises de luxe pour chien, commercialisées sous la marque Bernie's[17]. En novembre 2021, Ÿnsect signe un accord avec le centre de R&amp;D de Lotte, en Corée[18].
-En mars 2022, Ÿnsect annonce l’acquisition de son premier site de production sur le territoire américain[19],[20]. L'intégration de Jord Producers signifie son entrée sur le marché des aliments pour poules de basse-cour[6].
-Début 2023, la société lève 160 millions d'euros en série D auprès d'actionnaires historiques[6]. Une levée de fonds qui s'accompagne de licenciements, à hauteur d'un peu plus de 20 % de ses effectifs dans ses bureaux situés à Paris et aux Pays-Bas en raison de la fermeture d’un site de production[21]. La startup est alors valorisée à plus de 600 millions d'euros[22]. En juillet 2023, le PDG Antoine Hubert quitte ses fonctions[22]. Il est remplacé par Shankar Krishnamoorthy[23].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, Ÿnsect est créée par 4 scientifiques et militants écologistes : Antoine Hubert (AgroParisTech), Jean-Gabriel Levon (HEC Paris, Polytechnique), Fabrice Berro (Ensimag) et Alexis Angot (Essec).
+En février 2014, Ÿnsect réalise sa première levée de fonds et récolte 1,8 M€ grâce à des actionnaires tels que Emertec Gestion et Demeter Partners.  La première ferme du groupe est implantée à Dôle en 2015.
+En 2018, Ÿnsect annonce l’installation d'un nouveau site de production à Poulainville, dans la métropole d'Amiens, France. La giga ferme verticale fera 45 000 m2.
+En 2019 la société intègre l'indice Next40,.
+En mars 2020, Ÿnsect elle est la première entreprise au monde à obtenir une homologation de mise en marché] d’un engrais naturel à base d’insecte délivré par l'ANSES. En octobre 2020, l'entreprise annonce avoir complété son financement de série C pour atteindre un montant total de son financement à 425 millions USD.
+En mars 2021, Ÿnsect se voit délivrer la labellisation Bcorp. En avril 2021, Ÿnsect rachète Protifarm, entreprise néerlandaise, et étend son portefeuille de brevets à plus de 340 issus de 41 familles. Ce rachat s'inscrit dans une volonté de l'entreprise de se lancer sur le marché de l'alimentation humaine à base d'insectes.
+En mars 2021, Ÿnsect annonce le lancement d’Ÿnfabre, premier programme industriel de sélection génomique appliquée aux élevages d’insectes à grande échelle. En 2021, Ÿnsect s’est engagé à planter, dans le cadre de son projet Terrha 2040, 1,8 million d’arbres dans les Hauts-de-France, avec pour but de séquestrer plus de 190 000 tonnes de CO2 CO2 d’ici à 2040,. En mai 2021, Ÿnsect inaugure la pose de la première pierre de son chantier d'Amiens. En novembre 2021, Ÿnsect lance un partenariat avec la startup Pure Simple True, pour fabriquer des friandises de luxe pour chien, commercialisées sous la marque Bernie's. En novembre 2021, Ÿnsect signe un accord avec le centre de R&amp;D de Lotte, en Corée.
+En mars 2022, Ÿnsect annonce l’acquisition de son premier site de production sur le territoire américain,. L'intégration de Jord Producers signifie son entrée sur le marché des aliments pour poules de basse-cour.
+Début 2023, la société lève 160 millions d'euros en série D auprès d'actionnaires historiques. Une levée de fonds qui s'accompagne de licenciements, à hauteur d'un peu plus de 20 % de ses effectifs dans ses bureaux situés à Paris et aux Pays-Bas en raison de la fermeture d’un site de production. La startup est alors valorisée à plus de 600 millions d'euros. En juillet 2023, le PDG Antoine Hubert quitte ses fonctions. Il est remplacé par Shankar Krishnamoorthy.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%B8nsect</t>
+          <t>Ÿnsect</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,17 +567,162 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Localisation
-Le groupe Ÿnsect est présent en France (Poulainville, Paris, Évry et Dole), et aux États-Unis (Nebraska). L'atelier d'élevage de Poulainville est actif, un 2e atelier est en construction. Le site de production de Ermelo (Pays-Bas) doit être fermé[6].
-Insectes
-Après 5 années de R&amp;D, les cofondateurs ont fait le choix des coléoptères, et notamment le ver de farine (Tenebrio molitor). En effet, sa composition : 70 % de protéines (contre 30 % à 40 % par exemple pour la mouche soldat noire[24]) en fait un ingrédient premium.
-La protéine d’insecte a également des propriétés très intéressantes quant à ses bénéfices[25],[26],[27].
-Engrais
-Le 17 juin 2020, Ÿnsect a reçu une autorisation de mise sur le marché de son engrais naturel à base d’insectes : « Ynfrass ». Cette autorisation, délivrée par l’ANSES, permet à l’entreprise de devenir le premier acteur au monde à obtenir une homologation de mise sur le marché d’un engrais naturel à base d’insectes[28]. Cette dernière valorise le modèle circulaire du groupe[27].
-Nourriture pour animaux
-Ÿnsect commercialise sous la marque Pet Food Spryng des produits utilisés en alimentation animale[29].
-Nourriture pour êtres humains
-La branche d’activité Ÿnsect Human Nutrition &amp; Health commercialise des ingrédients issus de l'élevage de larve de vers Buffalo (Aphitobius diaperinus)[30].  
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe Ÿnsect est présent en France (Poulainville, Paris, Évry et Dole), et aux États-Unis (Nebraska). L'atelier d'élevage de Poulainville est actif, un 2e atelier est en construction. Le site de production de Ermelo (Pays-Bas) doit être fermé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ÿnsect</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%B8nsect</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Activité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après 5 années de R&amp;D, les cofondateurs ont fait le choix des coléoptères, et notamment le ver de farine (Tenebrio molitor). En effet, sa composition : 70 % de protéines (contre 30 % à 40 % par exemple pour la mouche soldat noire) en fait un ingrédient premium.
+La protéine d’insecte a également des propriétés très intéressantes quant à ses bénéfices.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ÿnsect</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%B8nsect</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Engrais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 17 juin 2020, Ÿnsect a reçu une autorisation de mise sur le marché de son engrais naturel à base d’insectes : « Ynfrass ». Cette autorisation, délivrée par l’ANSES, permet à l’entreprise de devenir le premier acteur au monde à obtenir une homologation de mise sur le marché d’un engrais naturel à base d’insectes. Cette dernière valorise le modèle circulaire du groupe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ÿnsect</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%B8nsect</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nourriture pour animaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ÿnsect commercialise sous la marque Pet Food Spryng des produits utilisés en alimentation animale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ÿnsect</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%B8nsect</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Activité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nourriture pour êtres humains</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La branche d’activité Ÿnsect Human Nutrition &amp; Health commercialise des ingrédients issus de l'élevage de larve de vers Buffalo (Aphitobius diaperinus).  
 </t>
         </is>
       </c>
